--- a/artfynd/A 58191-2022.xlsx
+++ b/artfynd/A 58191-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111487426</v>
+        <v>111487425</v>
       </c>
       <c r="B2" t="n">
-        <v>89369</v>
+        <v>96251</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>220093</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>Châtel.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Armsjön, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>626133.5793112689</v>
+        <v>626157.6942840694</v>
       </c>
       <c r="R2" t="n">
-        <v>6893051.461214696</v>
+        <v>6893095.882089161</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -774,6 +778,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -792,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111487425</v>
+        <v>111487426</v>
       </c>
       <c r="B3" t="n">
-        <v>96251</v>
+        <v>89369</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +813,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220093</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Châtel.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Armsjön, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>626157.6942840694</v>
+        <v>626133.5793112689</v>
       </c>
       <c r="R3" t="n">
-        <v>6893095.882089161</v>
+        <v>6893051.461214696</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -890,7 +891,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 58191-2022.xlsx
+++ b/artfynd/A 58191-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111487425</v>
+        <v>111487426</v>
       </c>
       <c r="B2" t="n">
-        <v>96251</v>
+        <v>89369</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220093</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Châtel.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Armsjön, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>626157.6942840694</v>
+        <v>626133.5793112689</v>
       </c>
       <c r="R2" t="n">
-        <v>6893095.882089161</v>
+        <v>6893051.461214696</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -778,7 +774,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -797,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111487426</v>
+        <v>111487425</v>
       </c>
       <c r="B3" t="n">
-        <v>89369</v>
+        <v>96251</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,34 +808,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>220093</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>Châtel.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Armsjön, Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>626133.5793112689</v>
+        <v>626157.6942840694</v>
       </c>
       <c r="R3" t="n">
-        <v>6893051.461214696</v>
+        <v>6893095.882089161</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -891,6 +890,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
